--- a/Ex-30/QueueItem_Example_Reports.xlsx
+++ b/Ex-30/QueueItem_Example_Reports.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49205276-1987-48A4-ABD1-5DD16A69B0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90881212-14B0-480E-AC85-605083E06EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="June Total" sheetId="3" r:id="rId1"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF67AE2E-B287-4862-9A58-73CD50246357}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DE665B-610A-458A-B5CE-9F59F2C7D314}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
